--- a/biology/Zoologie/Deinonychosauria/Deinonychosauria.xlsx
+++ b/biology/Zoologie/Deinonychosauria/Deinonychosauria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deinonychosauria, les déinonychosaures[1],[2], (les « lézards à griffe terrible ») est un clade éteint de théropodes connu du Jurassique supérieur jusqu'à la fin du Crétacé. Ces carnivores se reconnaissent à la longue griffe en forme de faucille qu'ils portent sur le second orteil de leurs pattes postérieures. Ce clade se subdivise en deux familles, les dromæosauridés et les troodontidés.
-Les dromæosauridés comptent différents types de prédateurs au Crétacé comme Dromaeosaurus, Deinonychus ou Velociraptor. Ils étaient spécialisés : si le massif Utahraptor pouvait s'en prendre à de grosses proies, Microraptor, d'une quarantaine de centimètres, chassait probablement surtout des lézards, des mammifères et des insectes. Les griffes rétractiles pouvaient servir à blesser et affaiblir de grandes proies[3] ou bien simplement gratter le sol pour déterrer des pontes d'autres dinosaures, des mammifères, des tortues ou des amphibiens[4].
-Les troodontidés, eux, sont apparus au Jurassique supérieur[5], et étaient plus légers et plus petits que les dromaeosauridés. Les plus connus sont « Troodon » et Saurornithoides.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deinonychosauria, les déinonychosaures (les « lézards à griffe terrible ») est un clade éteint de théropodes connu du Jurassique supérieur jusqu'à la fin du Crétacé. Ces carnivores se reconnaissent à la longue griffe en forme de faucille qu'ils portent sur le second orteil de leurs pattes postérieures. Ce clade se subdivise en deux familles, les dromæosauridés et les troodontidés.
+Les dromæosauridés comptent différents types de prédateurs au Crétacé comme Dromaeosaurus, Deinonychus ou Velociraptor. Ils étaient spécialisés : si le massif Utahraptor pouvait s'en prendre à de grosses proies, Microraptor, d'une quarantaine de centimètres, chassait probablement surtout des lézards, des mammifères et des insectes. Les griffes rétractiles pouvaient servir à blesser et affaiblir de grandes proies ou bien simplement gratter le sol pour déterrer des pontes d'autres dinosaures, des mammifères, des tortues ou des amphibiens.
+Les troodontidés, eux, sont apparus au Jurassique supérieur, et étaient plus légers et plus petits que les dromaeosauridés. Les plus connus sont « Troodon » et Saurornithoides.
 Selon certaines définitions, les Deinonychosauria et les Dromaeosauridae sont synonymes.
 </t>
         </is>
@@ -514,11 +526,13 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dromaeosauridae
 Troodontidae
-? Archaeopterygidae[6]</t>
+? Archaeopterygidae</t>
         </is>
       </c>
     </row>
